--- a/Data/Lab-linked/EnrichmentExp.xlsx
+++ b/Data/Lab-linked/EnrichmentExp.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DayTightChunks/Documents/PhD/HydrologicalMonitoring/Data/Lab-linked/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="1260" windowWidth="28160" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="-675" yWindow="1155" windowWidth="24000" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TableLabEnrich" sheetId="3" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
   <si>
     <t>CA2020</t>
   </si>
@@ -69,6 +63,121 @@
   </si>
   <si>
     <t>CA3040</t>
+  </si>
+  <si>
+    <t>CB3020</t>
+  </si>
+  <si>
+    <t>CB3040</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Initial concentration</t>
+  </si>
+  <si>
+    <t>Mean Initial</t>
+  </si>
+  <si>
+    <t>Mean of Temps</t>
+  </si>
+  <si>
+    <t>Overall Mean half-life</t>
+  </si>
+  <si>
+    <t>Overall Initial Conc.</t>
+  </si>
+  <si>
+    <t>Half-life</t>
+  </si>
+  <si>
+    <t>DT50</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>DT90</t>
+  </si>
+  <si>
+    <t>SE:</t>
+  </si>
+  <si>
+    <t>DD13</t>
+  </si>
+  <si>
+    <t>ebulk</t>
+  </si>
+  <si>
+    <t>AKIE</t>
+  </si>
+  <si>
+    <t>R^2</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>5.623
+(0.570)</t>
+  </si>
+  <si>
+    <t>6.803
+(0.364)</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>&lt; 0.001</t>
+  </si>
+  <si>
+    <t>&lt; 0.01</t>
+  </si>
+  <si>
+    <t>&lt; 0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>1.28
+(0.86)</t>
+  </si>
+  <si>
+    <t>1.95
+(0.14)</t>
+  </si>
+  <si>
+    <t>(1.07)</t>
+  </si>
+  <si>
+    <t>(0.89)</t>
+  </si>
+  <si>
+    <t>(0.47)</t>
+  </si>
+  <si>
+    <t>k_i</t>
+  </si>
+  <si>
+    <t>k (SE)</t>
+  </si>
+  <si>
+    <t>DT50 (SE)</t>
+  </si>
+  <si>
+    <t>DT90 (SE)</t>
+  </si>
+  <si>
+    <t>DT50_i</t>
+  </si>
+  <si>
+    <t>DT90_i</t>
+  </si>
+  <si>
+    <t>CB20(20/40)</t>
   </si>
 </sst>
 </file>
@@ -79,7 +188,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,8 +231,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,8 +261,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,6 +309,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -161,7 +331,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,28 +348,101 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -468,7 +711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -476,140 +719,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="12.625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.125" style="24" customWidth="1"/>
+    <col min="11" max="15" width="11.875" style="24" customWidth="1"/>
+    <col min="16" max="16" width="17.75" style="24" customWidth="1"/>
+    <col min="17" max="18" width="11.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:29" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="G1" s="19"/>
+      <c r="H1" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="11">
         <v>2.0497306988736699</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="12">
         <v>-31.277000000000001</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="13">
         <v>0.12347874310989568</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="21">
+        <f>D2/(0.5^(C2/$I$4))</f>
+        <v>2.0889831168234752</v>
+      </c>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="T2" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" s="27"/>
+      <c r="V2" s="21">
+        <f>AVERAGE(V4,V9)</f>
+        <v>1.7572570991865925E-2</v>
+      </c>
+      <c r="W2" s="21">
+        <f>STDEVA(U4:U6,U9:U11)/SQRT(COUNT(U4:U6,U9:U11))</f>
+        <v>2.868240820771464E-3</v>
+      </c>
+      <c r="Y2" s="21">
+        <f>LN(2)/V2</f>
+        <v>39.444835982212993</v>
+      </c>
+      <c r="Z2" s="21">
+        <f>STDEVA(X4:X6,X9:X11)/SQRT(COUNT(X4:X6,X9:X11))</f>
+        <v>7.8793635389467394</v>
+      </c>
+      <c r="AB2" s="21">
+        <f>LN(10)/V2</f>
+        <v>131.0329088475373</v>
+      </c>
+      <c r="AC2" s="21">
+        <f>STDEVA(AA4:AA6,AA9:AA11)/SQRT(COUNT(AA4:AA6,AA9:AA11))</f>
+        <v>26.174679109858289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="11">
         <v>2.05982659511375</v>
       </c>
-      <c r="E3" s="8">
-        <v>-30.887</v>
-      </c>
-      <c r="F3" s="10">
+      <c r="E3" s="12">
+        <v>-30.886499999999998</v>
+      </c>
+      <c r="F3" s="13">
         <v>0.13930003589374929</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="H3" s="21">
+        <f>C3*(LN(0.5)/LN(D3/$D$2))</f>
+        <v>-1410.7327637613637</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="21">
+        <f>D3/(0.5^(C3/$I$4))</f>
+        <v>2.4900720030579411</v>
+      </c>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="22"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+    </row>
+    <row r="4" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="10">
         <v>50</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="11">
         <v>0.5169881125618</v>
       </c>
-      <c r="E4" s="8">
-        <v>-26.782</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="E4" s="12">
+        <v>-26.781500000000001</v>
+      </c>
+      <c r="F4" s="13">
         <v>0.42072853480599498</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="H4" s="21">
+        <f>C4*(LN(0.5)/LN(D4/$D$2))</f>
+        <v>25.160633505532143</v>
+      </c>
+      <c r="I4" s="21">
+        <f>AVERAGE(H4:H6)</f>
+        <v>36.541083909863936</v>
+      </c>
+      <c r="J4" s="21">
+        <f>AVERAGE(I4,I9)</f>
+        <v>45.493376025602046</v>
+      </c>
+      <c r="K4" s="22">
+        <f>AVERAGE(I4,I9,I14,I19)</f>
+        <v>35.526946760563547</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="21">
+        <f>D4/(0.5^(C4/$I$4))</f>
+        <v>1.3347095815172849</v>
+      </c>
+      <c r="Q4" s="21">
+        <f>AVERAGE(P2:P6)</f>
+        <v>2.1176407442828733</v>
+      </c>
+      <c r="R4" s="22">
+        <f>AVERAGE(Q4,Q9,Q14,Q19)</f>
+        <v>2.668451222720666</v>
+      </c>
+      <c r="T4" s="27" t="str">
+        <f>B4</f>
+        <v>CB2020</v>
+      </c>
+      <c r="U4" s="8">
+        <f>LN(2)/H4</f>
+        <v>2.7548876319331981E-2</v>
+      </c>
+      <c r="V4" s="21">
+        <f>AVERAGE(U4:U6)</f>
+        <v>2.1343069623489291E-2</v>
+      </c>
+      <c r="W4" s="21">
+        <f>STDEVA(U4:U6)/SQRT(COUNT(U4:U6))</f>
+        <v>4.5537461678937172E-3</v>
+      </c>
+      <c r="X4" s="8">
+        <f>LN(2)/U4</f>
+        <v>25.160633505532143</v>
+      </c>
+      <c r="Y4" s="21">
+        <f>AVERAGE(X4:X6)</f>
+        <v>36.541083909863936</v>
+      </c>
+      <c r="Z4" s="21">
+        <f>STDEVA(X4:X6)/SQRT(COUNT(X4:X6))</f>
+        <v>9.5878640267911113</v>
+      </c>
+      <c r="AA4" s="8">
+        <f>LN(10)/U4</f>
+        <v>83.581815327191549</v>
+      </c>
+      <c r="AB4" s="21">
+        <f>AVERAGE(AA4:AA6)</f>
+        <v>121.38685325781357</v>
+      </c>
+      <c r="AC4" s="21">
+        <f>STDEVA(AA4:AA6)/SQRT(COUNT(AA4:AA6))</f>
+        <v>31.850194880557254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="10">
         <v>100</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="11">
         <v>0.58918013210506248</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="12">
         <v>-27.949000000000002</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="13">
         <v>0.50208664590885066</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="H5" s="21">
+        <f>C5*(LN(0.5)/LN(D5/$D$2))</f>
+        <v>55.597139472864619</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21">
+        <f>D5/(0.5^(C5/$I$4))</f>
+        <v>3.9269966915932284</v>
+      </c>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22"/>
+      <c r="U5" s="8">
+        <f>LN(2)/H5</f>
+        <v>1.2467317332005016E-2</v>
+      </c>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="8">
+        <f t="shared" ref="X5:X6" si="0">LN(2)/U5</f>
+        <v>55.597139472864619</v>
+      </c>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="8">
+        <f t="shared" ref="AA5:AA6" si="1">LN(10)/U5</f>
+        <v>184.68969961028017</v>
+      </c>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+    </row>
+    <row r="6" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="14">
         <v>200</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="15">
         <v>1.6824912135756726E-2</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="16">
         <v>-24.497</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="17">
         <v>0.36439538965250384</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" s="21">
+        <f>C6*(LN(0.5)/LN(D6/$D$2))</f>
+        <v>28.865478751195038</v>
+      </c>
+      <c r="I6" s="21">
+        <f>STDEVA(H4:H6)/SQRT(COUNT(H4:H6))</f>
+        <v>9.5878640267911024</v>
+      </c>
+      <c r="J6" s="21">
+        <f>STDEVA(H4:H6,H9:H11)/SQRT(COUNT(H4:H6,H9:H11))</f>
+        <v>7.8793635389467394</v>
+      </c>
+      <c r="K6" s="21">
+        <f>STDEVA(H4:H6,H9:H11,H14:H16,H19:H21)/SQRT(COUNT(H4:H6,H9:H11,H14:H16,H19:H21))</f>
+        <v>5.0023540317556696</v>
+      </c>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21">
+        <f>D6/(0.5^(C6/$I$4))</f>
+        <v>0.74744232842243719</v>
+      </c>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="22"/>
+      <c r="U6" s="8">
+        <f>LN(2)/H6</f>
+        <v>2.4013015219130872E-2</v>
+      </c>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="8">
+        <f t="shared" si="0"/>
+        <v>28.865478751195042</v>
+      </c>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="8">
+        <f t="shared" si="1"/>
+        <v>95.889044835968988</v>
+      </c>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -617,19 +1147,39 @@
       <c r="D7" s="2">
         <v>2.2322353211505197</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <v>-30.616666666666664</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="6">
         <v>0.19168289786345877</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23">
+        <f>D7/(0.5^(C7/$I$9))</f>
+        <v>2.26083555189977</v>
+      </c>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
@@ -637,19 +1187,42 @@
       <c r="D8" s="2">
         <v>3.0214390397981199</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>-31.751000000000001</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>7.7382168488611902E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" s="23">
+        <f>C8*(LN(0.5)/LN(D8/$R$4))</f>
+        <v>-55.793236448811108</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23">
+        <f t="shared" ref="P8:P11" si="2">D8/(0.5^(C8/$I$9))</f>
+        <v>3.4316565616324746</v>
+      </c>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>50</v>
@@ -657,19 +1230,82 @@
       <c r="D9" s="2">
         <v>1.4303382576752601</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>-28.846499999999999</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>0.15485638507985475</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" s="23">
+        <f t="shared" ref="H9:H11" si="3">C9*(LN(0.5)/LN(D9/$D$7))</f>
+        <v>77.865518497159471</v>
+      </c>
+      <c r="I9" s="23">
+        <f>AVERAGE(H9:H11)</f>
+        <v>54.445668141340157</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23">
+        <f t="shared" si="2"/>
+        <v>2.7032652393644199</v>
+      </c>
+      <c r="Q9" s="23">
+        <f>AVERAGE(P7:P11)</f>
+        <v>2.2264581321413406</v>
+      </c>
+      <c r="R9" s="23"/>
+      <c r="T9" s="27" t="str">
+        <f>B9</f>
+        <v>CB2040</v>
+      </c>
+      <c r="U9" s="8">
+        <f>LN(2)/H9</f>
+        <v>8.9018501891210203E-3</v>
+      </c>
+      <c r="V9" s="21">
+        <f>AVERAGE(U9:U11)</f>
+        <v>1.3802072360242557E-2</v>
+      </c>
+      <c r="W9" s="21">
+        <f>STDEVA(U9:U11)/SQRT(COUNT(U9:U11))</f>
+        <v>2.4861140233340853E-3</v>
+      </c>
+      <c r="X9" s="8">
+        <f>LN(2)/U9</f>
+        <v>77.865518497159471</v>
+      </c>
+      <c r="Y9" s="21">
+        <f>AVERAGE(X9:X11)</f>
+        <v>54.445668141340157</v>
+      </c>
+      <c r="Z9" s="21">
+        <f>STDEVA(X9:X11)/SQRT(COUNT(X9:X11))</f>
+        <v>11.762277762945184</v>
+      </c>
+      <c r="AA9" s="8">
+        <f>LN(10)/U9</f>
+        <v>258.66365351868563</v>
+      </c>
+      <c r="AB9" s="21">
+        <f>AVERAGE(AA9:AA11)</f>
+        <v>180.8645946436317</v>
+      </c>
+      <c r="AC9" s="21">
+        <f>STDEVA(AA9:AA11)/SQRT(COUNT(AA9:AA11))</f>
+        <v>39.073440960596393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4">
         <v>100</v>
@@ -677,19 +1313,50 @@
       <c r="D10" s="2">
         <v>0.40851265149191252</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>-27.14833333333333</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="6">
         <v>0.39128804394375932</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" s="23">
+        <f t="shared" si="3"/>
+        <v>40.815719135115593</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23">
+        <f t="shared" si="2"/>
+        <v>1.4591680808589902</v>
+      </c>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="U10" s="8">
+        <f>LN(2)/H10</f>
+        <v>1.6982358641418612E-2</v>
+      </c>
+      <c r="X10" s="8">
+        <f t="shared" ref="X10:X11" si="4">LN(2)/U10</f>
+        <v>40.815719135115593</v>
+      </c>
+      <c r="AA10" s="8">
+        <f t="shared" ref="AA10:AA11" si="5">LN(10)/U10</f>
+        <v>135.58688410797222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11" s="5">
         <v>200</v>
@@ -697,119 +1364,318 @@
       <c r="D11" s="3">
         <v>0.100118761720053</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>-25.677000000000003</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>0.5704007363249094</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="H11" s="23">
+        <f t="shared" si="3"/>
+        <v>44.655766791745407</v>
+      </c>
+      <c r="I11" s="21">
+        <f>STDEVA(H9:H11)/SQRT(COUNT(H9:H11))</f>
+        <v>11.762277762945184</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23">
+        <f t="shared" si="2"/>
+        <v>1.2773652269510472</v>
+      </c>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="U11" s="8">
+        <f>LN(2)/H11</f>
+        <v>1.5522008250188039E-2</v>
+      </c>
+      <c r="X11" s="8">
+        <f t="shared" si="4"/>
+        <v>44.655766791745407</v>
+      </c>
+      <c r="AA11" s="8">
+        <f t="shared" si="5"/>
+        <v>148.3432463042372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>2.0266373477185704</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="8">
         <v>-30.76</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="8">
         <v>8.6278618440490507E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21">
+        <f>D12/(0.5^(C12/$I$14))</f>
+        <v>2.086797027107707</v>
+      </c>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+    </row>
+    <row r="13" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
         <v>10</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>2.5487694915293302</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="8">
         <v>-28.670333333333332</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="8">
         <v>0.15280815859545366</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="H13" s="21">
+        <f>C13*(LN(0.5)/LN(D13/$D$12))</f>
+        <v>-30.237703004224784</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21">
+        <f t="shared" ref="P13:P16" si="6">D13/(0.5^(C13/$I$14))</f>
+        <v>3.4148547516060459</v>
+      </c>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+    </row>
+    <row r="14" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="8">
         <v>50</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>0.14399646088481299</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="8">
         <v>-27.070333333333334</v>
       </c>
-      <c r="F14">
-        <v>0.80328409254357502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="F14" s="8">
+        <v>0.80328409254343647</v>
+      </c>
+      <c r="H14" s="21">
+        <f t="shared" ref="H14:H16" si="7">C14*(LN(0.5)/LN(D14/$D$12))</f>
+        <v>13.106219352490736</v>
+      </c>
+      <c r="I14" s="21">
+        <f>AVERAGE(H14:H16)</f>
+        <v>23.695373456018704</v>
+      </c>
+      <c r="J14" s="21">
+        <f>AVERAGE(I14,I19)</f>
+        <v>25.560517495525048</v>
+      </c>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21">
+        <f t="shared" si="6"/>
+        <v>0.62167041227445841</v>
+      </c>
+      <c r="Q14" s="21">
+        <f>AVERAGE(P12:P16)</f>
+        <v>2.9437977556265373</v>
+      </c>
+      <c r="R14" s="21"/>
+      <c r="T14" s="27" t="str">
+        <f>B14</f>
+        <v>CB3020</v>
+      </c>
+      <c r="U14" s="8">
+        <f>LN(2)/H14</f>
+        <v>5.288688995032103E-2</v>
+      </c>
+      <c r="V14" s="8">
+        <f>AVERAGE(U14:U16)</f>
+        <v>3.3596727621365514E-2</v>
+      </c>
+      <c r="W14" s="8">
+        <f>STDEVA(U14:U16)/SQRT(COUNT(U14:U16))</f>
+        <v>9.6623387186703779E-3</v>
+      </c>
+      <c r="X14" s="8">
+        <f>LN(2)/U14</f>
+        <v>13.106219352490736</v>
+      </c>
+      <c r="Y14" s="8">
+        <f>AVERAGE(X14:X16)</f>
+        <v>23.695373456018704</v>
+      </c>
+      <c r="Z14" s="8">
+        <f>STDEVA(X14:X16)/SQRT(COUNT(X14:X16))</f>
+        <v>5.3404744526307208</v>
+      </c>
+      <c r="AA14" s="8">
+        <f>LN(10)/U14</f>
+        <v>43.537918284795438</v>
+      </c>
+      <c r="AB14" s="8">
+        <f>AVERAGE(AA14:AA16)</f>
+        <v>78.714326802396798</v>
+      </c>
+      <c r="AC14" s="8">
+        <f>STDEVA(AA14:AA16)/SQRT(COUNT(AA14:AA16))</f>
+        <v>17.740672124222204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
         <v>100</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="8">
         <v>0.20416906459159123</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="8">
         <v>-29.119999999999997</v>
       </c>
-      <c r="F15">
-        <v>0.88105504935862289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="F15" s="8">
+        <v>0.88105504935843726</v>
+      </c>
+      <c r="H15" s="21">
+        <f t="shared" si="7"/>
+        <v>30.200059455938543</v>
+      </c>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21">
+        <f t="shared" si="6"/>
+        <v>3.8054559467916595</v>
+      </c>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="U15" s="8">
+        <f>LN(2)/H15</f>
+        <v>2.2951848209810222E-2</v>
+      </c>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15" s="8">
+        <f t="shared" ref="X15:X16" si="8">LN(2)/U15</f>
+        <v>30.200059455938543</v>
+      </c>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15" s="8">
+        <f t="shared" ref="AA15:AA16" si="9">LN(10)/U15</f>
+        <v>100.32242597395101</v>
+      </c>
+      <c r="AB15"/>
+      <c r="AC15"/>
+    </row>
+    <row r="16" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8">
         <v>200</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="8">
         <v>1.37886291629115E-2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="8">
         <v>-26.741666666666671</v>
       </c>
-      <c r="F16">
-        <v>1.0069629255008254</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F16" s="8">
+        <v>1.0069629255009016</v>
+      </c>
+      <c r="H16" s="21">
+        <f t="shared" si="7"/>
+        <v>27.779841559626828</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21">
+        <f t="shared" si="6"/>
+        <v>4.7902106403528162</v>
+      </c>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="U16" s="8">
+        <f>LN(2)/H16</f>
+        <v>2.4951444703965275E-2</v>
+      </c>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16" s="8">
+        <f t="shared" si="8"/>
+        <v>27.779841559626828</v>
+      </c>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16" s="8">
+        <f t="shared" si="9"/>
+        <v>92.282636148443942</v>
+      </c>
+      <c r="AB16"/>
+      <c r="AC16"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -821,15 +1687,29 @@
         <v>-30.577500000000001</v>
       </c>
       <c r="F17">
-        <v>0.23829498525949197</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.23829498525986634</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23">
+        <f>D17/(0.5^(C17/$I$19))</f>
+        <v>2.7180637725341663</v>
+      </c>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -843,13 +1723,30 @@
       <c r="F18">
         <v>0.168612969054381</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" s="23">
+        <f>C18*(LN(0.5)/LN(D18/$R$4))</f>
+        <v>-54.650361584216384</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23">
+        <f t="shared" ref="P18:P21" si="10">D18/(0.5^(C18/$I$19))</f>
+        <v>3.9003566814924606</v>
+      </c>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>50</v>
@@ -861,15 +1758,78 @@
         <v>-27.517333333333337</v>
       </c>
       <c r="F19">
-        <v>0.55601918432112807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.55601918432130848</v>
+      </c>
+      <c r="H19" s="23">
+        <f>C19*(LN(0.5)/LN(D19/$D$17))</f>
+        <v>26.874223686609643</v>
+      </c>
+      <c r="I19" s="23">
+        <f>AVERAGE(H19:H21)</f>
+        <v>27.425661535031395</v>
+      </c>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23">
+        <f t="shared" si="10"/>
+        <v>2.5823925557993666</v>
+      </c>
+      <c r="Q19" s="23">
+        <f>AVERAGE(P17:P21)</f>
+        <v>3.385908258831912</v>
+      </c>
+      <c r="R19" s="23"/>
+      <c r="T19" s="27" t="str">
+        <f>B19</f>
+        <v>CB3040</v>
+      </c>
+      <c r="U19" s="8">
+        <f>LN(2)/H19</f>
+        <v>2.5792268035087947E-2</v>
+      </c>
+      <c r="V19" s="8">
+        <f>AVERAGE(U19:U21)</f>
+        <v>2.5912527093250537E-2</v>
+      </c>
+      <c r="W19" s="8">
+        <f>STDEVA(U19:U21)/SQRT(COUNT(U19:U21))</f>
+        <v>2.8693139774432341E-3</v>
+      </c>
+      <c r="X19" s="8">
+        <f>LN(2)/U19</f>
+        <v>26.874223686609646</v>
+      </c>
+      <c r="Y19" s="8">
+        <f>AVERAGE(X19:X21)</f>
+        <v>27.425661535031395</v>
+      </c>
+      <c r="Z19" s="8">
+        <f>STDEVA(X19:X21)/SQRT(COUNT(X19:X21))</f>
+        <v>3.0720198154851519</v>
+      </c>
+      <c r="AA19" s="8">
+        <f>LN(10)/U19</f>
+        <v>89.274238692836022</v>
+      </c>
+      <c r="AB19" s="8">
+        <f>AVERAGE(AA19:AA21)</f>
+        <v>91.106075574092472</v>
+      </c>
+      <c r="AC19" s="8">
+        <f>STDEVA(AA19:AA21)/SQRT(COUNT(AA19:AA21))</f>
+        <v>10.205028933110802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>100</v>
@@ -881,15 +1841,44 @@
         <v>-29.093666666666667</v>
       </c>
       <c r="F20">
-        <v>0.59879573590092183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.59879573590109403</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" ref="H20:H21" si="11">C20*(LN(0.5)/LN(D20/$D$17))</f>
+        <v>22.401960258437647</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23">
+        <f t="shared" si="10"/>
+        <v>1.5036222744116983</v>
+      </c>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="U20" s="8">
+        <f>LN(2)/H20</f>
+        <v>3.0941362834481102E-2</v>
+      </c>
+      <c r="X20" s="8">
+        <f t="shared" ref="X20:X21" si="12">LN(2)/U20</f>
+        <v>22.401960258437647</v>
+      </c>
+      <c r="AA20" s="8">
+        <f t="shared" ref="AA20:AA21" si="13">LN(10)/U20</f>
+        <v>74.41770116305419</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>200</v>
@@ -901,115 +1890,199 @@
         <v>-28.224666666666664</v>
       </c>
       <c r="F21">
-        <v>0.64216612596239619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>0.64216612596222578</v>
+      </c>
+      <c r="H21" s="23">
+        <f t="shared" si="11"/>
+        <v>33.000800660046899</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23">
+        <f t="shared" si="10"/>
+        <v>6.2251060099218689</v>
+      </c>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="U21" s="8">
+        <f>LN(2)/H21</f>
+        <v>2.1003950410182569E-2</v>
+      </c>
+      <c r="X21" s="8">
+        <f t="shared" si="12"/>
+        <v>33.000800660046899</v>
+      </c>
+      <c r="AA21" s="8">
+        <f t="shared" si="13"/>
+        <v>109.62628686638722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="8">
         <v>2.3489446736192701</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="8">
         <v>-29.751000000000001</v>
       </c>
-      <c r="F22">
-        <v>0.65794528647907957</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="F22" s="8">
+        <v>0.65794528647905082</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+    </row>
+    <row r="23" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
         <v>10</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="8">
         <v>2.3543486134029052</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="8">
         <v>-28.277666666666665</v>
       </c>
-      <c r="F23">
-        <v>0.70190122761926721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="F23" s="8">
+        <v>0.7019012276191956</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+    </row>
+    <row r="24" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
         <v>50</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="8">
         <v>2.2273916925454302</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="8">
         <v>-30.363333333333333</v>
       </c>
-      <c r="F24">
-        <v>0.41223456106094447</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="F24" s="8">
+        <v>0.41223456106121575</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+    </row>
+    <row r="25" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
         <v>100</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="8">
         <v>1.1509750287053924</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="8">
         <v>-28.7105</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="8">
         <v>0.12232947314527401</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+    </row>
+    <row r="26" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="8">
         <v>200</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="8">
         <v>0.84895684167819518</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="8">
         <v>-29.350333333333335</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="8">
         <v>0.14318286675902619</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1023,13 +2096,24 @@
       <c r="F27">
         <v>7.0710678118640685E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -1041,15 +2125,26 @@
         <v>-30.499499999999998</v>
       </c>
       <c r="F28">
-        <v>0.64417427766094981</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.64417427766094326</v>
+      </c>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>50</v>
@@ -1061,15 +2156,26 @@
         <v>-30.419333333333338</v>
       </c>
       <c r="F29">
-        <v>0.69796155577002961</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.6979615557703257</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -1081,15 +2187,26 @@
         <v>-29.651</v>
       </c>
       <c r="F30">
-        <v>0.67599408281431039</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.67599408281434159</v>
+      </c>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>200</v>
@@ -1101,10 +2218,627 @@
         <v>-30.018000000000001</v>
       </c>
       <c r="F31">
-        <v>0.85842763236053288</v>
+        <v>0.85842763236046771</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+    </row>
+    <row r="32" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2.3775326488924002</v>
+      </c>
+      <c r="E32" s="8">
+        <v>-30.792999999999996</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.18405705637111477</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21">
+        <f>D32/(0.5^(C32/$I$34))</f>
+        <v>2.3950741727416713</v>
+      </c>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+    </row>
+    <row r="33" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="8">
+        <v>10</v>
+      </c>
+      <c r="D33" s="8">
+        <v>3.0117667932699299</v>
+      </c>
+      <c r="E33" s="8">
+        <v>-30.846999999999998</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0.47723893386856009</v>
+      </c>
+      <c r="H33" s="21">
+        <f>C33*(LN(0.5)/LN(D33/$D$32))</f>
+        <v>-29.313056344193026</v>
+      </c>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21">
+        <f t="shared" ref="P33:P36" si="14">D33/(0.5^(C33/$I$34))</f>
+        <v>3.2415007120362618</v>
+      </c>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+    </row>
+    <row r="34" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="8">
+        <v>50</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1.7833848075135399</v>
+      </c>
+      <c r="E34" s="8">
+        <v>-30.257333333333332</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0.20057251390291089</v>
+      </c>
+      <c r="H34" s="21">
+        <f>C34*(LN(0.5)/LN(D34/$D$32))</f>
+        <v>120.52632772118473</v>
+      </c>
+      <c r="I34" s="21">
+        <f>AVERAGE(H34:H36)</f>
+        <v>94.293520170906774</v>
+      </c>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21">
+        <f t="shared" si="14"/>
+        <v>2.575543956353314</v>
+      </c>
+      <c r="Q34" s="21">
+        <f>AVERAGE(P32:P36)</f>
+        <v>2.4803976677746356</v>
+      </c>
+      <c r="R34" s="21"/>
+    </row>
+    <row r="35" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="8">
+        <v>100</v>
+      </c>
+      <c r="D35" s="8">
+        <v>0.82956227174319497</v>
+      </c>
+      <c r="E35" s="8">
+        <v>-29.583666666666669</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0.53794547431252959</v>
+      </c>
+      <c r="H35" s="21">
+        <f t="shared" ref="H35:H36" si="15">C35*(LN(0.5)/LN(D35/$D$32))</f>
+        <v>65.830922682970197</v>
+      </c>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21">
+        <f t="shared" si="14"/>
+        <v>1.7302019599240404</v>
+      </c>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+    </row>
+    <row r="36" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8">
+        <v>200</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0.56543253559789741</v>
+      </c>
+      <c r="E36" s="8">
+        <v>-29.234000000000002</v>
+      </c>
+      <c r="F36" s="8">
+        <v>0.81034437123978154</v>
+      </c>
+      <c r="H36" s="21">
+        <f t="shared" si="15"/>
+        <v>96.523310108565425</v>
+      </c>
+      <c r="I36" s="21"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="21">
+        <f t="shared" si="14"/>
+        <v>2.459667537817892</v>
+      </c>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>3.1031146117130599</v>
+      </c>
+      <c r="E37">
+        <v>-30.520666666666667</v>
+      </c>
+      <c r="F37">
+        <v>0.34976754185220438</v>
+      </c>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>3.4955791735943054</v>
+      </c>
+      <c r="E38">
+        <v>-29.445000000000004</v>
+      </c>
+      <c r="F38">
+        <v>0.82680045960316206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>50</v>
+      </c>
+      <c r="D39">
+        <v>2.1742798171895998</v>
+      </c>
+      <c r="E39">
+        <v>-29.991666666666664</v>
+      </c>
+      <c r="F39">
+        <v>0.2045099834563916</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>100</v>
+      </c>
+      <c r="D40">
+        <v>1.9073097246728525</v>
+      </c>
+      <c r="E40">
+        <v>-30.878333333333334</v>
+      </c>
+      <c r="F40">
+        <v>0.79404302990035269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>200</v>
+      </c>
+      <c r="D41">
+        <v>1.5467699379280424</v>
+      </c>
+      <c r="E41">
+        <v>-30.898</v>
+      </c>
+      <c r="F41">
+        <v>5.2325901807803152E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11" style="28"/>
+    <col min="3" max="3" width="7.875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="5" style="28" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="28" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="28"/>
+    <col min="10" max="10" width="3.25" style="28" customWidth="1"/>
+    <col min="11" max="12" width="11" style="28"/>
+    <col min="13" max="13" width="5" style="28" customWidth="1"/>
+    <col min="14" max="14" width="7.125" style="28" customWidth="1"/>
+    <col min="15" max="16384" width="11" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="18">
+        <v>-1.369</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.85</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="28">
+        <f>1/(1+1*(15/1)*C3/1000)</f>
+        <v>1.0209655270989775</v>
+      </c>
+      <c r="G3" s="36">
+        <f>Sheet1!Y4</f>
+        <v>36.541083909863936</v>
+      </c>
+      <c r="H3" s="36">
+        <f>Sheet1!AB4</f>
+        <v>121.38685325781357</v>
+      </c>
+      <c r="I3" s="35">
+        <f>Sheet1!V4</f>
+        <v>2.1343069623489291E-2</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="28">
+        <v>0.04</v>
+      </c>
+      <c r="N3" s="28">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="28">
+        <f>F3-(1/(1+1*(15/1)*(C3+1.07)/1000))</f>
+        <v>1.6460321250748144E-2</v>
+      </c>
+      <c r="G4" s="33">
+        <f>Sheet1!Z4</f>
+        <v>9.5878640267911113</v>
+      </c>
+      <c r="H4" s="33">
+        <f>Sheet1!AC4</f>
+        <v>31.850194880557254</v>
+      </c>
+      <c r="I4" s="32">
+        <f>Sheet1!W4</f>
+        <v>4.5537461678937172E-3</v>
+      </c>
+      <c r="K4" s="18"/>
+    </row>
+    <row r="5" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="18">
+        <v>-1.7430000000000001</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.93</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="28">
+        <f>1/(1+1*(15/1)*C5/1000)</f>
+        <v>1.0268469125280457</v>
+      </c>
+      <c r="G5" s="36">
+        <f>Sheet1!Y9</f>
+        <v>54.445668141340157</v>
+      </c>
+      <c r="H5" s="36">
+        <f>Sheet1!AB9</f>
+        <v>180.8645946436317</v>
+      </c>
+      <c r="I5" s="35">
+        <f>Sheet1!V9</f>
+        <v>1.3802072360242557E-2</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="28">
+        <v>0.48</v>
+      </c>
+      <c r="N5" s="28">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="28">
+        <f>F5-(1/(1+1*(15/1)*(C5+0.89)/1000))</f>
+        <v>1.3886078658687184E-2</v>
+      </c>
+      <c r="G6" s="33">
+        <f>Sheet1!Z9</f>
+        <v>11.762277762945184</v>
+      </c>
+      <c r="H6" s="33">
+        <f>Sheet1!AC9</f>
+        <v>39.073440960596393</v>
+      </c>
+      <c r="I6" s="32">
+        <f>Sheet1!W9</f>
+        <v>2.4861140233340853E-3</v>
+      </c>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="18">
+        <v>-1.476</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.87</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="28">
+        <f>1/(1+1*(15/1)*C7/1000)</f>
+        <v>1.0226412778925409</v>
+      </c>
+      <c r="G7" s="36">
+        <f>Sheet1!Y2</f>
+        <v>39.444835982212993</v>
+      </c>
+      <c r="H7" s="36">
+        <f>Sheet1!AB2</f>
+        <v>131.0329088475373</v>
+      </c>
+      <c r="I7" s="35">
+        <f>Sheet1!V2</f>
+        <v>1.7572570991865925E-2</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="N7" s="28">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="28">
+        <f>F7-(1/(1+1*(15/1)*(C7+0.47)/1000))</f>
+        <v>7.3200810319140608E-3</v>
+      </c>
+      <c r="G8" s="33">
+        <f>Sheet1!Z2</f>
+        <v>7.8793635389467394</v>
+      </c>
+      <c r="H8" s="33">
+        <f>Sheet1!AC2</f>
+        <v>26.174679109858289</v>
+      </c>
+      <c r="I8" s="32">
+        <f>Sheet1!W2</f>
+        <v>2.868240820771464E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/Lab-linked/EnrichmentExp.xlsx
+++ b/Data/Lab-linked/EnrichmentExp.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="52">
   <si>
     <t>CA2020</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>CB20(20/40)</t>
+  </si>
+  <si>
+    <t>C.SD</t>
   </si>
 </sst>
 </file>
@@ -711,7 +714,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -719,25 +722,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="12.625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.125" style="24" customWidth="1"/>
-    <col min="11" max="15" width="11.875" style="24" customWidth="1"/>
-    <col min="16" max="16" width="17.75" style="24" customWidth="1"/>
-    <col min="17" max="18" width="11.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="24" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="24" customWidth="1"/>
+    <col min="12" max="16" width="11.875" style="24" customWidth="1"/>
+    <col min="17" max="17" width="17.75" style="24" customWidth="1"/>
+    <col min="18" max="19" width="11.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
@@ -751,68 +754,71 @@
         <v>1</v>
       </c>
       <c r="E1" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="19"/>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="J1" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="K1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="L1" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="34"/>
       <c r="N1" s="34"/>
       <c r="O1" s="34"/>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="34"/>
+      <c r="Q1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="18" t="s">
+      <c r="AC1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AD1" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -825,56 +831,59 @@
       <c r="D2" s="11">
         <v>2.0497306988736699</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F2" s="12">
         <v>-31.277000000000001</v>
       </c>
-      <c r="F2" s="13">
+      <c r="G2" s="13">
         <v>0.12347874310989568</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="22"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
       <c r="N2" s="22"/>
       <c r="O2" s="22"/>
-      <c r="P2" s="21">
-        <f>D2/(0.5^(C2/$I$4))</f>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="21">
+        <f>D2/(0.5^(C2/$J$4))</f>
         <v>2.0889831168234752</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="T2" s="27" t="s">
+      <c r="R2" s="21"/>
+      <c r="S2" s="22"/>
+      <c r="U2" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="27"/>
-      <c r="V2" s="21">
-        <f>AVERAGE(V4,V9)</f>
+      <c r="V2" s="27"/>
+      <c r="W2" s="21">
+        <f>AVERAGE(W4,W9)</f>
         <v>1.7572570991865925E-2</v>
       </c>
-      <c r="W2" s="21">
-        <f>STDEVA(U4:U6,U9:U11)/SQRT(COUNT(U4:U6,U9:U11))</f>
+      <c r="X2" s="21">
+        <f>STDEVA(V4:V6,V9:V11)/SQRT(COUNT(V4:V6,V9:V11))</f>
         <v>2.868240820771464E-3</v>
       </c>
-      <c r="Y2" s="21">
-        <f>LN(2)/V2</f>
+      <c r="Z2" s="21">
+        <f>LN(2)/W2</f>
         <v>39.444835982212993</v>
       </c>
-      <c r="Z2" s="21">
-        <f>STDEVA(X4:X6,X9:X11)/SQRT(COUNT(X4:X6,X9:X11))</f>
+      <c r="AA2" s="21">
+        <f>STDEVA(Y4:Y6,Y9:Y11)/SQRT(COUNT(Y4:Y6,Y9:Y11))</f>
         <v>7.8793635389467394</v>
       </c>
-      <c r="AB2" s="21">
-        <f>LN(10)/V2</f>
+      <c r="AC2" s="21">
+        <f>LN(10)/W2</f>
         <v>131.0329088475373</v>
       </c>
-      <c r="AC2" s="21">
-        <f>STDEVA(AA4:AA6,AA9:AA11)/SQRT(COUNT(AA4:AA6,AA9:AA11))</f>
+      <c r="AD2" s="21">
+        <f>STDEVA(AB4:AB6,AB9:AB11)/SQRT(COUNT(AB4:AB6,AB9:AB11))</f>
         <v>26.174679109858289</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -887,37 +896,40 @@
       <c r="D3" s="11">
         <v>2.05982659511375</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="F3" s="12">
         <v>-30.886499999999998</v>
       </c>
-      <c r="F3" s="13">
+      <c r="G3" s="13">
         <v>0.13930003589374929</v>
       </c>
-      <c r="H3" s="21">
+      <c r="I3" s="21">
         <f>C3*(LN(0.5)/LN(D3/$D$2))</f>
         <v>-1410.7327637613637</v>
       </c>
-      <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="22"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
       <c r="O3" s="22"/>
-      <c r="P3" s="21">
-        <f>D3/(0.5^(C3/$I$4))</f>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="21">
+        <f>D3/(0.5^(C3/$J$4))</f>
         <v>2.4900720030579411</v>
       </c>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="22"/>
-      <c r="V3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="22"/>
       <c r="W3" s="21"/>
-      <c r="Y3" s="21"/>
+      <c r="X3" s="21"/>
       <c r="Z3" s="21"/>
-      <c r="AB3" s="21"/>
+      <c r="AA3" s="21"/>
       <c r="AC3" s="21"/>
-    </row>
-    <row r="4" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD3" s="21"/>
+    </row>
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
@@ -930,86 +942,89 @@
       <c r="D4" s="11">
         <v>0.5169881125618</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="12">
         <v>-26.781500000000001</v>
       </c>
-      <c r="F4" s="13">
+      <c r="G4" s="13">
         <v>0.42072853480599498</v>
       </c>
-      <c r="H4" s="21">
+      <c r="I4" s="21">
         <f>C4*(LN(0.5)/LN(D4/$D$2))</f>
         <v>25.160633505532143</v>
       </c>
-      <c r="I4" s="21">
-        <f>AVERAGE(H4:H6)</f>
+      <c r="J4" s="21">
+        <f>AVERAGE(I4:I6)</f>
         <v>36.541083909863936</v>
       </c>
-      <c r="J4" s="21">
-        <f>AVERAGE(I4,I9)</f>
+      <c r="K4" s="21">
+        <f>AVERAGE(J4,J9)</f>
         <v>45.493376025602046</v>
       </c>
-      <c r="K4" s="22">
-        <f>AVERAGE(I4,I9,I14,I19)</f>
+      <c r="L4" s="22">
+        <f>AVERAGE(J4,J9,J14,J19)</f>
         <v>35.526946760563547</v>
       </c>
-      <c r="L4" s="22"/>
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
-      <c r="P4" s="21">
-        <f>D4/(0.5^(C4/$I$4))</f>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="21">
+        <f>D4/(0.5^(C4/$J$4))</f>
         <v>1.3347095815172849</v>
       </c>
-      <c r="Q4" s="21">
-        <f>AVERAGE(P2:P6)</f>
+      <c r="R4" s="21">
+        <f>AVERAGE(Q2:Q6)</f>
         <v>2.1176407442828733</v>
       </c>
-      <c r="R4" s="22">
-        <f>AVERAGE(Q4,Q9,Q14,Q19)</f>
+      <c r="S4" s="22">
+        <f>AVERAGE(R4,R9,R14,R19)</f>
         <v>2.668451222720666</v>
       </c>
-      <c r="T4" s="27" t="str">
+      <c r="U4" s="27" t="str">
         <f>B4</f>
         <v>CB2020</v>
       </c>
-      <c r="U4" s="8">
-        <f>LN(2)/H4</f>
+      <c r="V4" s="8">
+        <f>LN(2)/I4</f>
         <v>2.7548876319331981E-2</v>
       </c>
-      <c r="V4" s="21">
-        <f>AVERAGE(U4:U6)</f>
+      <c r="W4" s="21">
+        <f>AVERAGE(V4:V6)</f>
         <v>2.1343069623489291E-2</v>
       </c>
-      <c r="W4" s="21">
-        <f>STDEVA(U4:U6)/SQRT(COUNT(U4:U6))</f>
+      <c r="X4" s="21">
+        <f>STDEVA(V4:V6)/SQRT(COUNT(V4:V6))</f>
         <v>4.5537461678937172E-3</v>
       </c>
-      <c r="X4" s="8">
-        <f>LN(2)/U4</f>
+      <c r="Y4" s="8">
+        <f>LN(2)/V4</f>
         <v>25.160633505532143</v>
       </c>
-      <c r="Y4" s="21">
-        <f>AVERAGE(X4:X6)</f>
+      <c r="Z4" s="21">
+        <f>AVERAGE(Y4:Y6)</f>
         <v>36.541083909863936</v>
       </c>
-      <c r="Z4" s="21">
-        <f>STDEVA(X4:X6)/SQRT(COUNT(X4:X6))</f>
+      <c r="AA4" s="21">
+        <f>STDEVA(Y4:Y6)/SQRT(COUNT(Y4:Y6))</f>
         <v>9.5878640267911113</v>
       </c>
-      <c r="AA4" s="8">
-        <f>LN(10)/U4</f>
+      <c r="AB4" s="8">
+        <f>LN(10)/V4</f>
         <v>83.581815327191549</v>
       </c>
-      <c r="AB4" s="21">
-        <f>AVERAGE(AA4:AA6)</f>
+      <c r="AC4" s="21">
+        <f>AVERAGE(AB4:AB6)</f>
         <v>121.38685325781357</v>
       </c>
-      <c r="AC4" s="21">
-        <f>STDEVA(AA4:AA6)/SQRT(COUNT(AA4:AA6))</f>
+      <c r="AD4" s="21">
+        <f>STDEVA(AB4:AB6)/SQRT(COUNT(AB4:AB6))</f>
         <v>31.850194880557254</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1022,55 +1037,58 @@
       <c r="D5" s="11">
         <v>0.58918013210506248</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="12">
         <v>-27.949000000000002</v>
       </c>
-      <c r="F5" s="13">
+      <c r="G5" s="13">
         <v>0.50208664590885066</v>
       </c>
-      <c r="H5" s="21">
+      <c r="I5" s="21">
         <f>C5*(LN(0.5)/LN(D5/$D$2))</f>
         <v>55.597139472864619</v>
       </c>
-      <c r="I5" s="21" t="s">
-        <v>26</v>
-      </c>
       <c r="J5" s="21" t="s">
         <v>26</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
-      <c r="P5" s="21">
-        <f>D5/(0.5^(C5/$I$4))</f>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21">
+        <f>D5/(0.5^(C5/$J$4))</f>
         <v>3.9269966915932284</v>
       </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="22"/>
-      <c r="U5" s="8">
-        <f>LN(2)/H5</f>
+      <c r="R5" s="21"/>
+      <c r="S5" s="22"/>
+      <c r="V5" s="8">
+        <f>LN(2)/I5</f>
         <v>1.2467317332005016E-2</v>
       </c>
-      <c r="V5" s="21"/>
       <c r="W5" s="21"/>
-      <c r="X5" s="8">
-        <f t="shared" ref="X5:X6" si="0">LN(2)/U5</f>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="8">
+        <f t="shared" ref="Y5:Y6" si="0">LN(2)/V5</f>
         <v>55.597139472864619</v>
       </c>
-      <c r="Y5" s="21"/>
       <c r="Z5" s="21"/>
-      <c r="AA5" s="8">
-        <f t="shared" ref="AA5:AA6" si="1">LN(10)/U5</f>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="8">
+        <f t="shared" ref="AB5:AB6" si="1">LN(10)/V5</f>
         <v>184.68969961028017</v>
       </c>
-      <c r="AB5" s="21"/>
       <c r="AC5" s="21"/>
-    </row>
-    <row r="6" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD5" s="21"/>
+    </row>
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -1083,58 +1101,61 @@
       <c r="D6" s="15">
         <v>1.6824912135756726E-2</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
+        <v>0</v>
+      </c>
+      <c r="F6" s="16">
         <v>-24.497</v>
       </c>
-      <c r="F6" s="17">
+      <c r="G6" s="17">
         <v>0.36439538965250384</v>
       </c>
-      <c r="H6" s="21">
+      <c r="I6" s="21">
         <f>C6*(LN(0.5)/LN(D6/$D$2))</f>
         <v>28.865478751195038</v>
       </c>
-      <c r="I6" s="21">
-        <f>STDEVA(H4:H6)/SQRT(COUNT(H4:H6))</f>
+      <c r="J6" s="21">
+        <f>STDEVA(I4:I6)/SQRT(COUNT(I4:I6))</f>
         <v>9.5878640267911024</v>
       </c>
-      <c r="J6" s="21">
-        <f>STDEVA(H4:H6,H9:H11)/SQRT(COUNT(H4:H6,H9:H11))</f>
+      <c r="K6" s="21">
+        <f>STDEVA(I4:I6,I9:I11)/SQRT(COUNT(I4:I6,I9:I11))</f>
         <v>7.8793635389467394</v>
       </c>
-      <c r="K6" s="21">
-        <f>STDEVA(H4:H6,H9:H11,H14:H16,H19:H21)/SQRT(COUNT(H4:H6,H9:H11,H14:H16,H19:H21))</f>
+      <c r="L6" s="21">
+        <f>STDEVA(I4:I6,I9:I11,I14:I16,I19:I21)/SQRT(COUNT(I4:I6,I9:I11,I14:I16,I19:I21))</f>
         <v>5.0023540317556696</v>
       </c>
-      <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
-      <c r="P6" s="21">
-        <f>D6/(0.5^(C6/$I$4))</f>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21">
+        <f>D6/(0.5^(C6/$J$4))</f>
         <v>0.74744232842243719</v>
       </c>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="22"/>
-      <c r="U6" s="8">
-        <f>LN(2)/H6</f>
+      <c r="R6" s="21"/>
+      <c r="S6" s="22"/>
+      <c r="V6" s="8">
+        <f>LN(2)/I6</f>
         <v>2.4013015219130872E-2</v>
       </c>
-      <c r="V6" s="21"/>
       <c r="W6" s="21"/>
-      <c r="X6" s="8">
+      <c r="X6" s="21"/>
+      <c r="Y6" s="8">
         <f t="shared" si="0"/>
         <v>28.865478751195042</v>
       </c>
-      <c r="Y6" s="21"/>
       <c r="Z6" s="21"/>
-      <c r="AA6" s="8">
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="8">
         <f t="shared" si="1"/>
         <v>95.889044835968988</v>
       </c>
-      <c r="AB6" s="21"/>
       <c r="AC6" s="21"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD6" s="21"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1147,13 +1168,15 @@
       <c r="D7" s="2">
         <v>2.2322353211505197</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F7" s="6">
         <v>-30.616666666666664</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>0.19168289786345877</v>
       </c>
-      <c r="H7" s="23"/>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
@@ -1161,20 +1184,21 @@
       <c r="M7" s="23"/>
       <c r="N7" s="23"/>
       <c r="O7" s="23"/>
-      <c r="P7" s="23">
-        <f>D7/(0.5^(C7/$I$9))</f>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23">
+        <f>D7/(0.5^(C7/$J$9))</f>
         <v>2.26083555189977</v>
       </c>
-      <c r="Q7" s="23"/>
       <c r="R7" s="23"/>
-      <c r="V7" s="23"/>
+      <c r="S7" s="23"/>
       <c r="W7" s="23"/>
-      <c r="Y7" s="23"/>
+      <c r="X7" s="23"/>
       <c r="Z7" s="23"/>
-      <c r="AB7" s="23"/>
+      <c r="AA7" s="23"/>
       <c r="AC7" s="23"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD7" s="23"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1187,37 +1211,40 @@
       <c r="D8" s="2">
         <v>3.0214390397981199</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F8" s="6">
         <v>-31.751000000000001</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>7.7382168488611902E-2</v>
       </c>
-      <c r="H8" s="23">
-        <f>C8*(LN(0.5)/LN(D8/$R$4))</f>
+      <c r="I8" s="23">
+        <f>C8*(LN(0.5)/LN(D8/$S$4))</f>
         <v>-55.793236448811108</v>
       </c>
-      <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
-      <c r="P8" s="23">
-        <f t="shared" ref="P8:P11" si="2">D8/(0.5^(C8/$I$9))</f>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23">
+        <f t="shared" ref="Q8:Q11" si="2">D8/(0.5^(C8/$J$9))</f>
         <v>3.4316565616324746</v>
       </c>
-      <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
-      <c r="V8" s="23"/>
+      <c r="S8" s="23"/>
       <c r="W8" s="23"/>
-      <c r="Y8" s="23"/>
+      <c r="X8" s="23"/>
       <c r="Z8" s="23"/>
-      <c r="AB8" s="23"/>
+      <c r="AA8" s="23"/>
       <c r="AC8" s="23"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8" s="23"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1230,77 +1257,80 @@
       <c r="D9" s="2">
         <v>1.4303382576752601</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F9" s="6">
         <v>-28.846499999999999</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>0.15485638507985475</v>
       </c>
-      <c r="H9" s="23">
-        <f t="shared" ref="H9:H11" si="3">C9*(LN(0.5)/LN(D9/$D$7))</f>
+      <c r="I9" s="23">
+        <f t="shared" ref="I9:I11" si="3">C9*(LN(0.5)/LN(D9/$D$7))</f>
         <v>77.865518497159471</v>
       </c>
-      <c r="I9" s="23">
-        <f>AVERAGE(H9:H11)</f>
+      <c r="J9" s="23">
+        <f>AVERAGE(I9:I11)</f>
         <v>54.445668141340157</v>
       </c>
-      <c r="J9" s="23"/>
       <c r="K9" s="23"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
-      <c r="P9" s="23">
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23">
         <f t="shared" si="2"/>
         <v>2.7032652393644199</v>
       </c>
-      <c r="Q9" s="23">
-        <f>AVERAGE(P7:P11)</f>
+      <c r="R9" s="23">
+        <f>AVERAGE(Q7:Q11)</f>
         <v>2.2264581321413406</v>
       </c>
-      <c r="R9" s="23"/>
-      <c r="T9" s="27" t="str">
+      <c r="S9" s="23"/>
+      <c r="U9" s="27" t="str">
         <f>B9</f>
         <v>CB2040</v>
       </c>
-      <c r="U9" s="8">
-        <f>LN(2)/H9</f>
+      <c r="V9" s="8">
+        <f>LN(2)/I9</f>
         <v>8.9018501891210203E-3</v>
       </c>
-      <c r="V9" s="21">
-        <f>AVERAGE(U9:U11)</f>
+      <c r="W9" s="21">
+        <f>AVERAGE(V9:V11)</f>
         <v>1.3802072360242557E-2</v>
       </c>
-      <c r="W9" s="21">
-        <f>STDEVA(U9:U11)/SQRT(COUNT(U9:U11))</f>
+      <c r="X9" s="21">
+        <f>STDEVA(V9:V11)/SQRT(COUNT(V9:V11))</f>
         <v>2.4861140233340853E-3</v>
       </c>
-      <c r="X9" s="8">
-        <f>LN(2)/U9</f>
+      <c r="Y9" s="8">
+        <f>LN(2)/V9</f>
         <v>77.865518497159471</v>
       </c>
-      <c r="Y9" s="21">
-        <f>AVERAGE(X9:X11)</f>
+      <c r="Z9" s="21">
+        <f>AVERAGE(Y9:Y11)</f>
         <v>54.445668141340157</v>
       </c>
-      <c r="Z9" s="21">
-        <f>STDEVA(X9:X11)/SQRT(COUNT(X9:X11))</f>
+      <c r="AA9" s="21">
+        <f>STDEVA(Y9:Y11)/SQRT(COUNT(Y9:Y11))</f>
         <v>11.762277762945184</v>
       </c>
-      <c r="AA9" s="8">
-        <f>LN(10)/U9</f>
+      <c r="AB9" s="8">
+        <f>LN(10)/V9</f>
         <v>258.66365351868563</v>
       </c>
-      <c r="AB9" s="21">
-        <f>AVERAGE(AA9:AA11)</f>
+      <c r="AC9" s="21">
+        <f>AVERAGE(AB9:AB11)</f>
         <v>180.8645946436317</v>
       </c>
-      <c r="AC9" s="21">
-        <f>STDEVA(AA9:AA11)/SQRT(COUNT(AA9:AA11))</f>
+      <c r="AD9" s="21">
+        <f>STDEVA(AB9:AB11)/SQRT(COUNT(AB9:AB11))</f>
         <v>39.073440960596393</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1313,45 +1343,48 @@
       <c r="D10" s="2">
         <v>0.40851265149191252</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="6">
         <v>-27.14833333333333</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>0.39128804394375932</v>
       </c>
-      <c r="H10" s="23">
+      <c r="I10" s="23">
         <f t="shared" si="3"/>
         <v>40.815719135115593</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="J10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="23"/>
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
-      <c r="P10" s="23">
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23">
         <f t="shared" si="2"/>
         <v>1.4591680808589902</v>
       </c>
-      <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
-      <c r="U10" s="8">
-        <f>LN(2)/H10</f>
+      <c r="S10" s="23"/>
+      <c r="V10" s="8">
+        <f>LN(2)/I10</f>
         <v>1.6982358641418612E-2</v>
       </c>
-      <c r="X10" s="8">
-        <f t="shared" ref="X10:X11" si="4">LN(2)/U10</f>
+      <c r="Y10" s="8">
+        <f t="shared" ref="Y10:Y11" si="4">LN(2)/V10</f>
         <v>40.815719135115593</v>
       </c>
-      <c r="AA10" s="8">
-        <f t="shared" ref="AA10:AA11" si="5">LN(10)/U10</f>
+      <c r="AB10" s="8">
+        <f t="shared" ref="AB10:AB11" si="5">LN(10)/V10</f>
         <v>135.58688410797222</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1364,46 +1397,49 @@
       <c r="D11" s="3">
         <v>0.100118761720053</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
         <v>-25.677000000000003</v>
       </c>
-      <c r="F11" s="7">
+      <c r="G11" s="7">
         <v>0.5704007363249094</v>
       </c>
-      <c r="H11" s="23">
+      <c r="I11" s="23">
         <f t="shared" si="3"/>
         <v>44.655766791745407</v>
       </c>
-      <c r="I11" s="21">
-        <f>STDEVA(H9:H11)/SQRT(COUNT(H9:H11))</f>
+      <c r="J11" s="21">
+        <f>STDEVA(I9:I11)/SQRT(COUNT(I9:I11))</f>
         <v>11.762277762945184</v>
       </c>
-      <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="23"/>
       <c r="M11" s="23"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
-      <c r="P11" s="23">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23">
         <f t="shared" si="2"/>
         <v>1.2773652269510472</v>
       </c>
-      <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
-      <c r="U11" s="8">
-        <f>LN(2)/H11</f>
+      <c r="S11" s="23"/>
+      <c r="V11" s="8">
+        <f>LN(2)/I11</f>
         <v>1.5522008250188039E-2</v>
       </c>
-      <c r="X11" s="8">
+      <c r="Y11" s="8">
         <f t="shared" si="4"/>
         <v>44.655766791745407</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AB11" s="8">
         <f t="shared" si="5"/>
         <v>148.3432463042372</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
@@ -1417,27 +1453,30 @@
         <v>2.0266373477185704</v>
       </c>
       <c r="E12" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F12" s="8">
         <v>-30.76</v>
       </c>
-      <c r="F12" s="8">
+      <c r="G12" s="8">
         <v>8.6278618440490507E-2</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
       <c r="O12" s="21"/>
-      <c r="P12" s="21">
-        <f>D12/(0.5^(C12/$I$14))</f>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21">
+        <f>D12/(0.5^(C12/$J$14))</f>
         <v>2.086797027107707</v>
       </c>
-      <c r="Q12" s="21"/>
       <c r="R12" s="21"/>
-    </row>
-    <row r="13" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="21"/>
+    </row>
+    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1451,30 +1490,33 @@
         <v>2.5487694915293302</v>
       </c>
       <c r="E13" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F13" s="8">
         <v>-28.670333333333332</v>
       </c>
-      <c r="F13" s="8">
+      <c r="G13" s="8">
         <v>0.15280815859545366</v>
       </c>
-      <c r="H13" s="21">
+      <c r="I13" s="21">
         <f>C13*(LN(0.5)/LN(D13/$D$12))</f>
         <v>-30.237703004224784</v>
       </c>
-      <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
-      <c r="P13" s="21">
-        <f t="shared" ref="P13:P16" si="6">D13/(0.5^(C13/$I$14))</f>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21">
+        <f t="shared" ref="Q13:Q16" si="6">D13/(0.5^(C13/$J$14))</f>
         <v>3.4148547516060459</v>
       </c>
-      <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
-    </row>
-    <row r="14" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="21"/>
+    </row>
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
@@ -1488,79 +1530,82 @@
         <v>0.14399646088481299</v>
       </c>
       <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
         <v>-27.070333333333334</v>
       </c>
-      <c r="F14" s="8">
+      <c r="G14" s="8">
         <v>0.80328409254343647</v>
       </c>
-      <c r="H14" s="21">
-        <f t="shared" ref="H14:H16" si="7">C14*(LN(0.5)/LN(D14/$D$12))</f>
+      <c r="I14" s="21">
+        <f t="shared" ref="I14:I16" si="7">C14*(LN(0.5)/LN(D14/$D$12))</f>
         <v>13.106219352490736</v>
       </c>
-      <c r="I14" s="21">
-        <f>AVERAGE(H14:H16)</f>
+      <c r="J14" s="21">
+        <f>AVERAGE(I14:I16)</f>
         <v>23.695373456018704</v>
       </c>
-      <c r="J14" s="21">
-        <f>AVERAGE(I14,I19)</f>
+      <c r="K14" s="21">
+        <f>AVERAGE(J14,J19)</f>
         <v>25.560517495525048</v>
       </c>
-      <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
       <c r="O14" s="21"/>
-      <c r="P14" s="21">
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21">
         <f t="shared" si="6"/>
         <v>0.62167041227445841</v>
       </c>
-      <c r="Q14" s="21">
-        <f>AVERAGE(P12:P16)</f>
+      <c r="R14" s="21">
+        <f>AVERAGE(Q12:Q16)</f>
         <v>2.9437977556265373</v>
       </c>
-      <c r="R14" s="21"/>
-      <c r="T14" s="27" t="str">
+      <c r="S14" s="21"/>
+      <c r="U14" s="27" t="str">
         <f>B14</f>
         <v>CB3020</v>
       </c>
-      <c r="U14" s="8">
-        <f>LN(2)/H14</f>
+      <c r="V14" s="8">
+        <f>LN(2)/I14</f>
         <v>5.288688995032103E-2</v>
       </c>
-      <c r="V14" s="8">
-        <f>AVERAGE(U14:U16)</f>
+      <c r="W14" s="8">
+        <f>AVERAGE(V14:V16)</f>
         <v>3.3596727621365514E-2</v>
       </c>
-      <c r="W14" s="8">
-        <f>STDEVA(U14:U16)/SQRT(COUNT(U14:U16))</f>
+      <c r="X14" s="8">
+        <f>STDEVA(V14:V16)/SQRT(COUNT(V14:V16))</f>
         <v>9.6623387186703779E-3</v>
       </c>
-      <c r="X14" s="8">
-        <f>LN(2)/U14</f>
+      <c r="Y14" s="8">
+        <f>LN(2)/V14</f>
         <v>13.106219352490736</v>
       </c>
-      <c r="Y14" s="8">
-        <f>AVERAGE(X14:X16)</f>
+      <c r="Z14" s="8">
+        <f>AVERAGE(Y14:Y16)</f>
         <v>23.695373456018704</v>
       </c>
-      <c r="Z14" s="8">
-        <f>STDEVA(X14:X16)/SQRT(COUNT(X14:X16))</f>
+      <c r="AA14" s="8">
+        <f>STDEVA(Y14:Y16)/SQRT(COUNT(Y14:Y16))</f>
         <v>5.3404744526307208</v>
       </c>
-      <c r="AA14" s="8">
-        <f>LN(10)/U14</f>
+      <c r="AB14" s="8">
+        <f>LN(10)/V14</f>
         <v>43.537918284795438</v>
       </c>
-      <c r="AB14" s="8">
-        <f>AVERAGE(AA14:AA16)</f>
+      <c r="AC14" s="8">
+        <f>AVERAGE(AB14:AB16)</f>
         <v>78.714326802396798</v>
       </c>
-      <c r="AC14" s="8">
-        <f>STDEVA(AA14:AA16)/SQRT(COUNT(AA14:AA16))</f>
+      <c r="AD14" s="8">
+        <f>STDEVA(AB14:AB16)/SQRT(COUNT(AB14:AB16))</f>
         <v>17.740672124222204</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>9</v>
       </c>
@@ -1574,48 +1619,51 @@
         <v>0.20416906459159123</v>
       </c>
       <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
         <v>-29.119999999999997</v>
       </c>
-      <c r="F15" s="8">
+      <c r="G15" s="8">
         <v>0.88105504935843726</v>
       </c>
-      <c r="H15" s="21">
+      <c r="I15" s="21">
         <f t="shared" si="7"/>
         <v>30.200059455938543</v>
       </c>
-      <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
       <c r="O15" s="21"/>
-      <c r="P15" s="21">
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21">
         <f t="shared" si="6"/>
         <v>3.8054559467916595</v>
       </c>
-      <c r="Q15" s="21"/>
       <c r="R15" s="21"/>
-      <c r="U15" s="8">
-        <f>LN(2)/H15</f>
+      <c r="S15" s="21"/>
+      <c r="V15" s="8">
+        <f>LN(2)/I15</f>
         <v>2.2951848209810222E-2</v>
       </c>
-      <c r="V15"/>
       <c r="W15"/>
-      <c r="X15" s="8">
-        <f t="shared" ref="X15:X16" si="8">LN(2)/U15</f>
+      <c r="X15"/>
+      <c r="Y15" s="8">
+        <f t="shared" ref="Y15:Y16" si="8">LN(2)/V15</f>
         <v>30.200059455938543</v>
       </c>
-      <c r="Y15"/>
       <c r="Z15"/>
-      <c r="AA15" s="8">
-        <f t="shared" ref="AA15:AA16" si="9">LN(10)/U15</f>
+      <c r="AA15"/>
+      <c r="AB15" s="8">
+        <f t="shared" ref="AB15:AB16" si="9">LN(10)/V15</f>
         <v>100.32242597395101</v>
       </c>
-      <c r="AB15"/>
       <c r="AC15"/>
-    </row>
-    <row r="16" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD15"/>
+    </row>
+    <row r="16" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>9</v>
       </c>
@@ -1629,48 +1677,51 @@
         <v>1.37886291629115E-2</v>
       </c>
       <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
         <v>-26.741666666666671</v>
       </c>
-      <c r="F16" s="8">
+      <c r="G16" s="8">
         <v>1.0069629255009016</v>
       </c>
-      <c r="H16" s="21">
+      <c r="I16" s="21">
         <f t="shared" si="7"/>
         <v>27.779841559626828</v>
       </c>
-      <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
       <c r="N16" s="21"/>
       <c r="O16" s="21"/>
-      <c r="P16" s="21">
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21">
         <f t="shared" si="6"/>
         <v>4.7902106403528162</v>
       </c>
-      <c r="Q16" s="21"/>
       <c r="R16" s="21"/>
-      <c r="U16" s="8">
-        <f>LN(2)/H16</f>
+      <c r="S16" s="21"/>
+      <c r="V16" s="8">
+        <f>LN(2)/I16</f>
         <v>2.4951444703965275E-2</v>
       </c>
-      <c r="V16"/>
       <c r="W16"/>
-      <c r="X16" s="8">
+      <c r="X16"/>
+      <c r="Y16" s="8">
         <f t="shared" si="8"/>
         <v>27.779841559626828</v>
       </c>
-      <c r="Y16"/>
       <c r="Z16"/>
-      <c r="AA16" s="8">
+      <c r="AA16"/>
+      <c r="AB16" s="8">
         <f t="shared" si="9"/>
         <v>92.282636148443942</v>
       </c>
-      <c r="AB16"/>
       <c r="AC16"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD16"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1684,12 +1735,14 @@
         <v>2.6502291454794702</v>
       </c>
       <c r="E17">
+        <v>0.06</v>
+      </c>
+      <c r="F17">
         <v>-30.577500000000001</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.23829498525986634</v>
       </c>
-      <c r="H17" s="23"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
@@ -1697,14 +1750,15 @@
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
-      <c r="P17" s="23">
-        <f>D17/(0.5^(C17/$I$19))</f>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23">
+        <f>D17/(0.5^(C17/$J$19))</f>
         <v>2.7180637725341663</v>
       </c>
-      <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
-    </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S17" s="23"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1718,30 +1772,33 @@
         <v>3.02929913250789</v>
       </c>
       <c r="E18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F18">
         <v>-29.940666666666669</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.168612969054381</v>
       </c>
-      <c r="H18" s="23">
-        <f>C18*(LN(0.5)/LN(D18/$R$4))</f>
+      <c r="I18" s="23">
+        <f>C18*(LN(0.5)/LN(D18/$S$4))</f>
         <v>-54.650361584216384</v>
       </c>
-      <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
-      <c r="P18" s="23">
-        <f t="shared" ref="P18:P21" si="10">D18/(0.5^(C18/$I$19))</f>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23">
+        <f t="shared" ref="Q18:Q21" si="10">D18/(0.5^(C18/$J$19))</f>
         <v>3.9003566814924606</v>
       </c>
-      <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1755,76 +1812,79 @@
         <v>0.72981274203788593</v>
       </c>
       <c r="E19">
+        <v>0.02</v>
+      </c>
+      <c r="F19">
         <v>-27.517333333333337</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.55601918432130848</v>
       </c>
-      <c r="H19" s="23">
+      <c r="I19" s="23">
         <f>C19*(LN(0.5)/LN(D19/$D$17))</f>
         <v>26.874223686609643</v>
       </c>
-      <c r="I19" s="23">
-        <f>AVERAGE(H19:H21)</f>
+      <c r="J19" s="23">
+        <f>AVERAGE(I19:I21)</f>
         <v>27.425661535031395</v>
       </c>
-      <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
-      <c r="P19" s="23">
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23">
         <f t="shared" si="10"/>
         <v>2.5823925557993666</v>
       </c>
-      <c r="Q19" s="23">
-        <f>AVERAGE(P17:P21)</f>
+      <c r="R19" s="23">
+        <f>AVERAGE(Q17:Q21)</f>
         <v>3.385908258831912</v>
       </c>
-      <c r="R19" s="23"/>
-      <c r="T19" s="27" t="str">
+      <c r="S19" s="23"/>
+      <c r="U19" s="27" t="str">
         <f>B19</f>
         <v>CB3040</v>
       </c>
-      <c r="U19" s="8">
-        <f>LN(2)/H19</f>
+      <c r="V19" s="8">
+        <f>LN(2)/I19</f>
         <v>2.5792268035087947E-2</v>
       </c>
-      <c r="V19" s="8">
-        <f>AVERAGE(U19:U21)</f>
+      <c r="W19" s="8">
+        <f>AVERAGE(V19:V21)</f>
         <v>2.5912527093250537E-2</v>
       </c>
-      <c r="W19" s="8">
-        <f>STDEVA(U19:U21)/SQRT(COUNT(U19:U21))</f>
+      <c r="X19" s="8">
+        <f>STDEVA(V19:V21)/SQRT(COUNT(V19:V21))</f>
         <v>2.8693139774432341E-3</v>
       </c>
-      <c r="X19" s="8">
-        <f>LN(2)/U19</f>
+      <c r="Y19" s="8">
+        <f>LN(2)/V19</f>
         <v>26.874223686609646</v>
       </c>
-      <c r="Y19" s="8">
-        <f>AVERAGE(X19:X21)</f>
+      <c r="Z19" s="8">
+        <f>AVERAGE(Y19:Y21)</f>
         <v>27.425661535031395</v>
       </c>
-      <c r="Z19" s="8">
-        <f>STDEVA(X19:X21)/SQRT(COUNT(X19:X21))</f>
+      <c r="AA19" s="8">
+        <f>STDEVA(Y19:Y21)/SQRT(COUNT(Y19:Y21))</f>
         <v>3.0720198154851519</v>
       </c>
-      <c r="AA19" s="8">
-        <f>LN(10)/U19</f>
+      <c r="AB19" s="8">
+        <f>LN(10)/V19</f>
         <v>89.274238692836022</v>
       </c>
-      <c r="AB19" s="8">
-        <f>AVERAGE(AA19:AA21)</f>
+      <c r="AC19" s="8">
+        <f>AVERAGE(AB19:AB21)</f>
         <v>91.106075574092472</v>
       </c>
-      <c r="AC19" s="8">
-        <f>STDEVA(AA19:AA21)/SQRT(COUNT(AA19:AA21))</f>
+      <c r="AD19" s="8">
+        <f>STDEVA(AB19:AB21)/SQRT(COUNT(AB19:AB21))</f>
         <v>10.205028933110802</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1838,42 +1898,45 @@
         <v>0.12009283897478748</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>-29.093666666666667</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.59879573590109403</v>
       </c>
-      <c r="H20" s="23">
-        <f t="shared" ref="H20:H21" si="11">C20*(LN(0.5)/LN(D20/$D$17))</f>
+      <c r="I20" s="23">
+        <f t="shared" ref="I20:I21" si="11">C20*(LN(0.5)/LN(D20/$D$17))</f>
         <v>22.401960258437647</v>
       </c>
-      <c r="I20" s="23"/>
       <c r="J20" s="23"/>
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
-      <c r="P20" s="23">
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23">
         <f t="shared" si="10"/>
         <v>1.5036222744116983</v>
       </c>
-      <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
-      <c r="U20" s="8">
-        <f>LN(2)/H20</f>
+      <c r="S20" s="23"/>
+      <c r="V20" s="8">
+        <f>LN(2)/I20</f>
         <v>3.0941362834481102E-2</v>
       </c>
-      <c r="X20" s="8">
-        <f t="shared" ref="X20:X21" si="12">LN(2)/U20</f>
+      <c r="Y20" s="8">
+        <f t="shared" ref="Y20:Y21" si="12">LN(2)/V20</f>
         <v>22.401960258437647</v>
       </c>
-      <c r="AA20" s="8">
-        <f t="shared" ref="AA20:AA21" si="13">LN(10)/U20</f>
+      <c r="AB20" s="8">
+        <f t="shared" ref="AB20:AB21" si="13">LN(10)/V20</f>
         <v>74.41770116305419</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1887,42 +1950,45 @@
         <v>3.9710327928699503E-2</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>-28.224666666666664</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.64216612596222578</v>
       </c>
-      <c r="H21" s="23">
+      <c r="I21" s="23">
         <f t="shared" si="11"/>
         <v>33.000800660046899</v>
       </c>
-      <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
-      <c r="P21" s="23">
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23">
         <f t="shared" si="10"/>
         <v>6.2251060099218689</v>
       </c>
-      <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
-      <c r="U21" s="8">
-        <f>LN(2)/H21</f>
+      <c r="S21" s="23"/>
+      <c r="V21" s="8">
+        <f>LN(2)/I21</f>
         <v>2.1003950410182569E-2</v>
       </c>
-      <c r="X21" s="8">
+      <c r="Y21" s="8">
         <f t="shared" si="12"/>
         <v>33.000800660046899</v>
       </c>
-      <c r="AA21" s="8">
+      <c r="AB21" s="8">
         <f t="shared" si="13"/>
         <v>109.62628686638722</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
@@ -1936,13 +2002,15 @@
         <v>2.3489446736192701</v>
       </c>
       <c r="E22" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F22" s="8">
         <v>-29.751000000000001</v>
       </c>
-      <c r="F22" s="8">
+      <c r="G22" s="8">
         <v>0.65794528647905082</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="21"/>
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
@@ -1952,8 +2020,9 @@
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
-    </row>
-    <row r="23" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="21"/>
+    </row>
+    <row r="23" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
@@ -1967,12 +2036,14 @@
         <v>2.3543486134029052</v>
       </c>
       <c r="E23" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F23" s="8">
         <v>-28.277666666666665</v>
       </c>
-      <c r="F23" s="8">
+      <c r="G23" s="8">
         <v>0.7019012276191956</v>
       </c>
-      <c r="H23" s="21"/>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
@@ -1983,8 +2054,9 @@
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
-    </row>
-    <row r="24" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S23" s="21"/>
+    </row>
+    <row r="24" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>10</v>
       </c>
@@ -1998,12 +2070,14 @@
         <v>2.2273916925454302</v>
       </c>
       <c r="E24" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="F24" s="8">
         <v>-30.363333333333333</v>
       </c>
-      <c r="F24" s="8">
+      <c r="G24" s="8">
         <v>0.41223456106121575</v>
       </c>
-      <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
@@ -2014,8 +2088,9 @@
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
-    </row>
-    <row r="25" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S24" s="21"/>
+    </row>
+    <row r="25" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>10</v>
       </c>
@@ -2029,12 +2104,14 @@
         <v>1.1509750287053924</v>
       </c>
       <c r="E25" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F25" s="8">
         <v>-28.7105</v>
       </c>
-      <c r="F25" s="8">
+      <c r="G25" s="8">
         <v>0.12232947314527401</v>
       </c>
-      <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
@@ -2045,8 +2122,9 @@
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
-    </row>
-    <row r="26" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S25" s="21"/>
+    </row>
+    <row r="26" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>10</v>
       </c>
@@ -2060,12 +2138,14 @@
         <v>0.84895684167819518</v>
       </c>
       <c r="E26" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F26" s="8">
         <v>-29.350333333333335</v>
       </c>
-      <c r="F26" s="8">
+      <c r="G26" s="8">
         <v>0.14318286675902619</v>
       </c>
-      <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -2076,8 +2156,9 @@
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S26" s="21"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -2091,12 +2172,14 @@
         <v>3.2061945703229902</v>
       </c>
       <c r="E27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F27">
         <v>-30.198</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>7.0710678118640685E-3</v>
       </c>
-      <c r="H27" s="23"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
@@ -2107,8 +2190,9 @@
       <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S27" s="23"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -2122,12 +2206,14 @@
         <v>3.6125980030892597</v>
       </c>
       <c r="E28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F28">
         <v>-30.499499999999998</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.64417427766094326</v>
       </c>
-      <c r="H28" s="23"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
@@ -2138,8 +2224,9 @@
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S28" s="23"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -2153,12 +2240,14 @@
         <v>2.0918641444371198</v>
       </c>
       <c r="E29">
+        <v>0.05</v>
+      </c>
+      <c r="F29">
         <v>-30.419333333333338</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.6979615557703257</v>
       </c>
-      <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
@@ -2169,8 +2258,9 @@
       <c r="P29" s="23"/>
       <c r="Q29" s="23"/>
       <c r="R29" s="23"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S29" s="23"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -2184,12 +2274,14 @@
         <v>1.4997161906877374</v>
       </c>
       <c r="E30">
+        <v>0.03</v>
+      </c>
+      <c r="F30">
         <v>-29.651</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.67599408281434159</v>
       </c>
-      <c r="H30" s="23"/>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
       <c r="K30" s="23"/>
@@ -2200,8 +2292,9 @@
       <c r="P30" s="23"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="S30" s="23"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2215,12 +2308,14 @@
         <v>1.2036918803687748</v>
       </c>
       <c r="E31">
+        <v>0.04</v>
+      </c>
+      <c r="F31">
         <v>-30.018000000000001</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.85842763236046771</v>
       </c>
-      <c r="H31" s="23"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
@@ -2231,8 +2326,9 @@
       <c r="P31" s="23"/>
       <c r="Q31" s="23"/>
       <c r="R31" s="23"/>
-    </row>
-    <row r="32" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S31" s="23"/>
+    </row>
+    <row r="32" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>10</v>
       </c>
@@ -2246,12 +2342,14 @@
         <v>2.3775326488924002</v>
       </c>
       <c r="E32" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F32" s="8">
         <v>-30.792999999999996</v>
       </c>
-      <c r="F32" s="8">
+      <c r="G32" s="8">
         <v>0.18405705637111477</v>
       </c>
-      <c r="H32" s="21"/>
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
       <c r="K32" s="21"/>
@@ -2259,14 +2357,15 @@
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
-      <c r="P32" s="21">
-        <f>D32/(0.5^(C32/$I$34))</f>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21">
+        <f>D32/(0.5^(C32/$J$34))</f>
         <v>2.3950741727416713</v>
       </c>
-      <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
-    </row>
-    <row r="33" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S32" s="21"/>
+    </row>
+    <row r="33" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>10</v>
       </c>
@@ -2280,30 +2379,33 @@
         <v>3.0117667932699299</v>
       </c>
       <c r="E33" s="8">
+        <v>0.08</v>
+      </c>
+      <c r="F33" s="8">
         <v>-30.846999999999998</v>
       </c>
-      <c r="F33" s="8">
+      <c r="G33" s="8">
         <v>0.47723893386856009</v>
       </c>
-      <c r="H33" s="21">
+      <c r="I33" s="21">
         <f>C33*(LN(0.5)/LN(D33/$D$32))</f>
         <v>-29.313056344193026</v>
       </c>
-      <c r="I33" s="21"/>
       <c r="J33" s="21"/>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
       <c r="N33" s="21"/>
       <c r="O33" s="21"/>
-      <c r="P33" s="21">
-        <f t="shared" ref="P33:P36" si="14">D33/(0.5^(C33/$I$34))</f>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21">
+        <f t="shared" ref="Q33:Q36" si="14">D33/(0.5^(C33/$J$34))</f>
         <v>3.2415007120362618</v>
       </c>
-      <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
-    </row>
-    <row r="34" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S33" s="21"/>
+    </row>
+    <row r="34" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>10</v>
       </c>
@@ -2317,36 +2419,39 @@
         <v>1.7833848075135399</v>
       </c>
       <c r="E34" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="F34" s="8">
         <v>-30.257333333333332</v>
       </c>
-      <c r="F34" s="8">
+      <c r="G34" s="8">
         <v>0.20057251390291089</v>
       </c>
-      <c r="H34" s="21">
+      <c r="I34" s="21">
         <f>C34*(LN(0.5)/LN(D34/$D$32))</f>
         <v>120.52632772118473</v>
       </c>
-      <c r="I34" s="21">
-        <f>AVERAGE(H34:H36)</f>
+      <c r="J34" s="21">
+        <f>AVERAGE(I34:I36)</f>
         <v>94.293520170906774</v>
       </c>
-      <c r="J34" s="21"/>
       <c r="K34" s="21"/>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
-      <c r="P34" s="21">
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21">
         <f t="shared" si="14"/>
         <v>2.575543956353314</v>
       </c>
-      <c r="Q34" s="21">
-        <f>AVERAGE(P32:P36)</f>
+      <c r="R34" s="21">
+        <f>AVERAGE(Q32:Q36)</f>
         <v>2.4803976677746356</v>
       </c>
-      <c r="R34" s="21"/>
-    </row>
-    <row r="35" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S34" s="21"/>
+    </row>
+    <row r="35" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>10</v>
       </c>
@@ -2360,30 +2465,33 @@
         <v>0.82956227174319497</v>
       </c>
       <c r="E35" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F35" s="8">
         <v>-29.583666666666669</v>
       </c>
-      <c r="F35" s="8">
+      <c r="G35" s="8">
         <v>0.53794547431252959</v>
       </c>
-      <c r="H35" s="21">
-        <f t="shared" ref="H35:H36" si="15">C35*(LN(0.5)/LN(D35/$D$32))</f>
+      <c r="I35" s="21">
+        <f t="shared" ref="I35:I36" si="15">C35*(LN(0.5)/LN(D35/$D$32))</f>
         <v>65.830922682970197</v>
       </c>
-      <c r="I35" s="21"/>
       <c r="J35" s="21"/>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
-      <c r="P35" s="21">
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21">
         <f t="shared" si="14"/>
         <v>1.7302019599240404</v>
       </c>
-      <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
-    </row>
-    <row r="36" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S35" s="21"/>
+    </row>
+    <row r="36" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>10</v>
       </c>
@@ -2397,30 +2505,33 @@
         <v>0.56543253559789741</v>
       </c>
       <c r="E36" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="F36" s="8">
         <v>-29.234000000000002</v>
       </c>
-      <c r="F36" s="8">
+      <c r="G36" s="8">
         <v>0.81034437123978154</v>
       </c>
-      <c r="H36" s="21">
+      <c r="I36" s="21">
         <f t="shared" si="15"/>
         <v>96.523310108565425</v>
       </c>
-      <c r="I36" s="21"/>
       <c r="J36" s="21"/>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
-      <c r="P36" s="21">
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21">
         <f t="shared" si="14"/>
         <v>2.459667537817892</v>
       </c>
-      <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S36" s="21"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2434,12 +2545,14 @@
         <v>3.1031146117130599</v>
       </c>
       <c r="E37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F37">
         <v>-30.520666666666667</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.34976754185220438</v>
       </c>
-      <c r="H37" s="23"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
@@ -2450,8 +2563,9 @@
       <c r="P37" s="23"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S37" s="23"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2465,13 +2579,16 @@
         <v>3.4955791735943054</v>
       </c>
       <c r="E38">
+        <v>0.08</v>
+      </c>
+      <c r="F38">
         <v>-29.445000000000004</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.82680045960316206</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2485,13 +2602,16 @@
         <v>2.1742798171895998</v>
       </c>
       <c r="E39">
+        <v>0.05</v>
+      </c>
+      <c r="F39">
         <v>-29.991666666666664</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.2045099834563916</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2505,13 +2625,16 @@
         <v>1.9073097246728525</v>
       </c>
       <c r="E40">
+        <v>0.04</v>
+      </c>
+      <c r="F40">
         <v>-30.878333333333334</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.79404302990035269</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2525,9 +2648,12 @@
         <v>1.5467699379280424</v>
       </c>
       <c r="E41">
+        <v>0.05</v>
+      </c>
+      <c r="F41">
         <v>-30.898</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>5.2325901807803152E-2</v>
       </c>
     </row>
@@ -2640,15 +2766,15 @@
         <v>1.0209655270989775</v>
       </c>
       <c r="G3" s="36">
-        <f>Sheet1!Y4</f>
+        <f>Sheet1!Z4</f>
         <v>36.541083909863936</v>
       </c>
       <c r="H3" s="36">
-        <f>Sheet1!AB4</f>
+        <f>Sheet1!AC4</f>
         <v>121.38685325781357</v>
       </c>
       <c r="I3" s="35">
-        <f>Sheet1!V4</f>
+        <f>Sheet1!W4</f>
         <v>2.1343069623489291E-2</v>
       </c>
       <c r="K3" s="18" t="s">
@@ -2677,15 +2803,15 @@
         <v>1.6460321250748144E-2</v>
       </c>
       <c r="G4" s="33">
-        <f>Sheet1!Z4</f>
+        <f>Sheet1!AA4</f>
         <v>9.5878640267911113</v>
       </c>
       <c r="H4" s="33">
-        <f>Sheet1!AC4</f>
+        <f>Sheet1!AD4</f>
         <v>31.850194880557254</v>
       </c>
       <c r="I4" s="32">
-        <f>Sheet1!W4</f>
+        <f>Sheet1!X4</f>
         <v>4.5537461678937172E-3</v>
       </c>
       <c r="K4" s="18"/>
@@ -2711,15 +2837,15 @@
         <v>1.0268469125280457</v>
       </c>
       <c r="G5" s="36">
-        <f>Sheet1!Y9</f>
+        <f>Sheet1!Z9</f>
         <v>54.445668141340157</v>
       </c>
       <c r="H5" s="36">
-        <f>Sheet1!AB9</f>
+        <f>Sheet1!AC9</f>
         <v>180.8645946436317</v>
       </c>
       <c r="I5" s="35">
-        <f>Sheet1!V9</f>
+        <f>Sheet1!W9</f>
         <v>1.3802072360242557E-2</v>
       </c>
       <c r="K5" s="18" t="s">
@@ -2748,15 +2874,15 @@
         <v>1.3886078658687184E-2</v>
       </c>
       <c r="G6" s="33">
-        <f>Sheet1!Z9</f>
+        <f>Sheet1!AA9</f>
         <v>11.762277762945184</v>
       </c>
       <c r="H6" s="33">
-        <f>Sheet1!AC9</f>
+        <f>Sheet1!AD9</f>
         <v>39.073440960596393</v>
       </c>
       <c r="I6" s="32">
-        <f>Sheet1!W9</f>
+        <f>Sheet1!X9</f>
         <v>2.4861140233340853E-3</v>
       </c>
       <c r="K6" s="18"/>
@@ -2779,15 +2905,15 @@
         <v>1.0226412778925409</v>
       </c>
       <c r="G7" s="36">
-        <f>Sheet1!Y2</f>
+        <f>Sheet1!Z2</f>
         <v>39.444835982212993</v>
       </c>
       <c r="H7" s="36">
-        <f>Sheet1!AB2</f>
+        <f>Sheet1!AC2</f>
         <v>131.0329088475373</v>
       </c>
       <c r="I7" s="35">
-        <f>Sheet1!V2</f>
+        <f>Sheet1!W2</f>
         <v>1.7572570991865925E-2</v>
       </c>
       <c r="L7" s="28" t="s">
@@ -2809,15 +2935,15 @@
         <v>7.3200810319140608E-3</v>
       </c>
       <c r="G8" s="33">
-        <f>Sheet1!Z2</f>
+        <f>Sheet1!AA2</f>
         <v>7.8793635389467394</v>
       </c>
       <c r="H8" s="33">
-        <f>Sheet1!AC2</f>
+        <f>Sheet1!AD2</f>
         <v>26.174679109858289</v>
       </c>
       <c r="I8" s="32">
-        <f>Sheet1!W2</f>
+        <f>Sheet1!X2</f>
         <v>2.868240820771464E-3</v>
       </c>
     </row>
